--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43438,6 +43438,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43475,6 +43475,43 @@
         </is>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43512,6 +43512,41 @@
         </is>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43547,6 +43547,41 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>22000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43582,6 +43582,43 @@
         <v>22000</v>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43619,6 +43619,43 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43656,6 +43656,43 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43693,6 +43693,41 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>10100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43728,6 +43728,43 @@
         <v>10100</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43765,6 +43765,41 @@
         </is>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43800,6 +43800,78 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>63400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43872,6 +43872,78 @@
         <v>63400</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43944,6 +43944,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43981,6 +43981,43 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44018,6 +44018,41 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44053,6 +44053,41 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>37000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44088,6 +44088,76 @@
         <v>37000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44158,6 +44158,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44195,6 +44195,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2127"/>
+  <dimension ref="A1:I2128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75907,6 +75907,43 @@
         </is>
       </c>
     </row>
+    <row r="2128">
+      <c r="A2128" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2128" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E2128" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2128" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2128" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2128" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2128"/>
+  <dimension ref="A1:I2129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75944,6 +75944,43 @@
         </is>
       </c>
     </row>
+    <row r="2129">
+      <c r="A2129" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2129" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E2129" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2129" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2129" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2129" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2129" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2129"/>
+  <dimension ref="A1:I2130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75981,6 +75981,43 @@
         </is>
       </c>
     </row>
+    <row r="2130">
+      <c r="A2130" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2130" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D2130" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E2130" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2130" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2130" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2130" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2130"/>
+  <dimension ref="A1:I2131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76018,6 +76018,43 @@
         </is>
       </c>
     </row>
+    <row r="2131">
+      <c r="A2131" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2131" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D2131" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E2131" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2131" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2131" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2131" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2131"/>
+  <dimension ref="A1:I2132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76055,6 +76055,43 @@
         </is>
       </c>
     </row>
+    <row r="2132">
+      <c r="A2132" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2132" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D2132" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E2132" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2132" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2132" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2132" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2132"/>
+  <dimension ref="A1:I2133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76092,6 +76092,43 @@
         </is>
       </c>
     </row>
+    <row r="2133">
+      <c r="A2133" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E2133" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2133" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2133" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2133" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2133" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2133"/>
+  <dimension ref="A1:I2134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76129,6 +76129,41 @@
         </is>
       </c>
     </row>
+    <row r="2134">
+      <c r="A2134" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2134" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D2134" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E2134" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2134" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2134" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2134" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2134" t="n">
+        <v>9000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2134"/>
+  <dimension ref="A1:I2135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76164,6 +76164,41 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="2135">
+      <c r="A2135" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2135" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D2135" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E2135" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2135" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2135" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2135" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2135" t="n">
+        <v>520000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2135"/>
+  <dimension ref="A1:I2136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76199,6 +76199,41 @@
         <v>520000</v>
       </c>
     </row>
+    <row r="2136">
+      <c r="A2136" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2136" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D2136" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E2136" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2136" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2136" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2136" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2136" t="n">
+        <v>375000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2136"/>
+  <dimension ref="A1:I2137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76234,6 +76234,43 @@
         <v>375000</v>
       </c>
     </row>
+    <row r="2137">
+      <c r="A2137" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2137" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D2137" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E2137" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2137" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2137" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2137" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2137"/>
+  <dimension ref="A1:I2138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76271,6 +76271,43 @@
         </is>
       </c>
     </row>
+    <row r="2138">
+      <c r="A2138" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2138" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D2138" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E2138" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2138" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2138" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2138" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2138" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2138"/>
+  <dimension ref="A1:I2139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76308,6 +76308,41 @@
         </is>
       </c>
     </row>
+    <row r="2139">
+      <c r="A2139" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2139" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D2139" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E2139" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2139" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2139" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2139" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2139" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2139"/>
+  <dimension ref="A1:I2140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76343,6 +76343,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2140">
+      <c r="A2140" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2140" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D2140" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E2140" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2140" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2140" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2140" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2140" t="n">
+        <v>33000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5673.xlsx
+++ b/data/5673.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2140"/>
+  <dimension ref="A1:I2141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76378,6 +76378,43 @@
         <v>33000</v>
       </c>
     </row>
+    <row r="2141">
+      <c r="A2141" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2141" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="D2141" t="inlineStr">
+        <is>
+          <t>IPMUDA</t>
+        </is>
+      </c>
+      <c r="E2141" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2141" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2141" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2141" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
